--- a/Study 3/results/E.z_ml_results.xlsx
+++ b/Study 3/results/E.z_ml_results.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">rowname</t>
   </si>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <t xml:space="preserve">p.value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ci.upper</t>
   </si>
   <si>
     <t xml:space="preserve">r_xy1y2</t>
@@ -455,10 +461,16 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" t="n">
         <v>-0.409341485330861</v>
@@ -475,10 +487,16 @@
       <c r="F2" t="n">
         <v>0.00155051782310886</v>
       </c>
+      <c r="G2" t="n">
+        <v>-0.652956666624399</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-0.165726304037323</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>-0.0555521411292813</v>
@@ -495,10 +513,16 @@
       <c r="F3" t="n">
         <v>0.00635840195724748</v>
       </c>
+      <c r="G3" t="n">
+        <v>-0.094656498555627</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-0.0164477837029356</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
         <v>-0.00447145918275291</v>
@@ -515,10 +539,16 @@
       <c r="F4" t="n">
         <v>0.784481358504337</v>
       </c>
+      <c r="G4" t="n">
+        <v>-0.0371802166385047</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0282372982729989</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="n">
         <v>-0.379126735066147</v>
@@ -535,10 +565,16 @@
       <c r="F5" t="n">
         <v>0.00635840195724748</v>
       </c>
+      <c r="G5" t="n">
+        <v>-0.646002269591595</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-0.112251200540699</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>-0.0395266924270103</v>
@@ -555,10 +591,16 @@
       <c r="F6" t="n">
         <v>0.784481358504337</v>
       </c>
+      <c r="G6" t="n">
+        <v>-0.328664743962842</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.249611359108821</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="n">
         <v>-0.427897502505862</v>
@@ -575,10 +617,16 @@
       <c r="F7" t="n">
         <v>0.00635840195724748</v>
       </c>
+      <c r="G7" t="n">
+        <v>-0.729103838385689</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-0.126691166626034</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="n">
         <v>-0.0344419886967843</v>
@@ -595,10 +643,16 @@
       <c r="F8" t="n">
         <v>0.784481358504337</v>
       </c>
+      <c r="G8" t="n">
+        <v>-0.286385394313043</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.217501416919475</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="n">
         <v>-0.0300118001560171</v>
@@ -615,10 +669,16 @@
       <c r="F9" t="n">
         <v>0.0711616998330607</v>
       </c>
+      <c r="G9" t="n">
+        <v>-0.0627142793191626</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.00269067900712837</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="n">
         <v>-0.119767400969365</v>
@@ -635,10 +695,16 @@
       <c r="F10" t="n">
         <v>0.000000000689589772464813</v>
       </c>
+      <c r="G10" t="n">
+        <v>-0.150220010959749</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-0.0893147909789818</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
         <v>-0.0510806819465284</v>
@@ -655,10 +721,16 @@
       <c r="F11" t="n">
         <v>0.00155051782310886</v>
       </c>
+      <c r="G11" t="n">
+        <v>-0.0814808002803514</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-0.0206805636127053</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12" t="n">
         <v>-0.422864480966878</v>
@@ -667,10 +739,12 @@
       <c r="D12"/>
       <c r="E12"/>
       <c r="F12"/>
+      <c r="G12"/>
+      <c r="H12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13" t="n">
         <v>-0.359492102437056</v>
@@ -679,10 +753,12 @@
       <c r="D13"/>
       <c r="E13"/>
       <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14" t="n">
         <v>-2.34467114387272</v>
@@ -691,10 +767,12 @@
       <c r="D14"/>
       <c r="E14"/>
       <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" t="n">
         <v>0.0210688817905113</v>
@@ -711,10 +789,16 @@
       <c r="F15" t="n">
         <v>0.284102609692684</v>
       </c>
+      <c r="G15" t="n">
+        <v>-0.0180893926313762</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.0602271562123987</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16" t="n">
         <v>0.162285768207754</v>
@@ -731,10 +815,16 @@
       <c r="F16" t="n">
         <v>0.284102609692684</v>
       </c>
+      <c r="G16" t="n">
+        <v>-0.139335870255663</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.463907406671171</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17" t="n">
         <v>0.130273328892558</v>
@@ -751,10 +841,16 @@
       <c r="F17" t="n">
         <v>0.470708228315227</v>
       </c>
+      <c r="G17" t="n">
+        <v>-0.230428573379141</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.490975231164257</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18" t="n">
         <v>-0.00894291836550583</v>
@@ -771,10 +867,16 @@
       <c r="F18" t="n">
         <v>0.607759320747831</v>
       </c>
+      <c r="G18" t="n">
+        <v>-0.0743604332770094</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0564745965459978</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19" t="n">
         <v>-0.0688839773935686</v>
@@ -791,10 +893,16 @@
       <c r="F19" t="n">
         <v>0.607759320747831</v>
       </c>
+      <c r="G19" t="n">
+        <v>-0.572770788626086</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.435002833838949</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" t="n">
         <v>-0.0790533848540205</v>
@@ -811,10 +919,16 @@
       <c r="F20" t="n">
         <v>0.607759320747832</v>
       </c>
+      <c r="G20" t="n">
+        <v>-0.657329487925683</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.499222718217642</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21" t="n">
         <v>0.0510806819465284</v>
@@ -831,10 +945,16 @@
       <c r="F21" t="n">
         <v>0.00077525891155443</v>
       </c>
+      <c r="G21" t="n">
+        <v>0.0206805636127053</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.0814808002803515</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22" t="n">
         <v>0.0600236003120342</v>
@@ -851,10 +971,16 @@
       <c r="F22" t="n">
         <v>0.0355808499165303</v>
       </c>
+      <c r="G22" t="n">
+        <v>-0.0053813580142567</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.125428558638325</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23" t="n">
         <v>0.393455513809077</v>
@@ -871,10 +997,16 @@
       <c r="F23" t="n">
         <v>0.000775258911554429</v>
       </c>
+      <c r="G23" t="n">
+        <v>0.159294697565236</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.627616330052918</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" t="n">
         <v>0.462339491202646</v>
@@ -891,10 +1023,16 @@
       <c r="F24" t="n">
         <v>0.0355808499165304</v>
       </c>
+      <c r="G24" t="n">
+        <v>-0.0414506013194265</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.966129583724718</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25" t="n">
         <v>0.339600042639136</v>
@@ -911,10 +1049,16 @@
       <c r="F25" t="n">
         <v>0.00259263208103967</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.107566407734587</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.571633677543686</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" t="n">
         <v>0.418653427493157</v>
@@ -930,6 +1074,12 @@
       </c>
       <c r="F26" t="n">
         <v>0.0513552133067662</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0874029028098363</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.92470975779615</v>
       </c>
     </row>
   </sheetData>
